--- a/data/ANVEMTUNEST4-2024.xlsx
+++ b/data/ANVEMTUNEST4-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I492"/>
+  <dimension ref="A1:I492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -586,8 +589,6 @@
       <c r="F11" s="11" t="n">
         <v>330.66624004</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -9235,6 +9236,7 @@
         <v>1.622e-05</v>
       </c>
     </row>
+    <row r="491"/>
     <row r="492">
       <c r="D492" s="6" t="inlineStr">
         <is>
@@ -9260,7 +9262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9273,6 +9275,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -9280,6 +9284,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -9520,7 +9525,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr"/>
       <c r="D24" s="10" t="n">
         <v>63210</v>
       </c>
@@ -9710,6 +9714,7 @@
         <v>0.00645221</v>
       </c>
     </row>
+    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -9735,7 +9740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9748,6 +9753,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -9755,6 +9762,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -10059,6 +10067,7 @@
         <v>3.76e-06</v>
       </c>
     </row>
+    <row r="29"/>
     <row r="30">
       <c r="C30" s="6" t="inlineStr">
         <is>
